--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Mel, geleias e pastas.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Mel, geleias e pastas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Creme De Avela C/cacau Nutella 140g</t>
+          <t>Geleia Linea Damasco Vd 230g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5c1179c-8f15-49f8-9b7c-76c0a1af303e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30bfd64f-1370-4596-b098-52b032e76abe.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896001210141</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Creme De Avelã Nutella 350g</t>
+          <t>Mel Florismel Florada Sivestre 300g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0f5ba0e-e0cf-49b9-a25b-2e5372c33e18.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ac2f022-220a-4114-8873-df2d7f8c3abf.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7897771400169</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Geleia De Morango Saint Paul 230g</t>
+          <t>Creme De Avelã Nutella 350g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 33,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee1ec0a7-0f09-4035-85e1-cbcc406bad7f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0f5ba0e-e0cf-49b9-a25b-2e5372c33e18.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898024397892</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Creme Avela Nutella 650g</t>
+          <t>Geleia Diet Queensberry 280g Amora</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 56,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2831b55-bce0-4c38-9ddb-ed7d1ff0c891.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f148b0da-ec3e-4a9f-9d2a-774ba8a8cace.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896214533037</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mel Florismel Florada Laranja 300g</t>
+          <t>Creme De Avela C/cacau Nutella 140g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12b68434-7f9f-4adb-a991-2d98f24143ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5c1179c-8f15-49f8-9b7c-76c0a1af303e.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898024396529</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Geleia Cepera Goiaba 230g</t>
+          <t>Glucose De Milho Karo 350g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da947fae-5d98-4acb-b977-811840a1ce23.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0ded921-9aee-4b4e-87d1-a8a5919b4867.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7894000021249</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Geleia Queensberry 320g Morango</t>
+          <t>Geleia Homemade Premium 320g Fr Verm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d9abbfb-a918-4bc6-9fb4-f442cdb9ca8b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/97f6ac10-f230-41a7-a3a3-aebc90b4da86.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7898002470104</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Geleia Cepera Morango 230g</t>
+          <t>Geleia Zero Homemade Premium 250g Morang</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59f3c073-a036-44df-bf9f-0f23f73b30a8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e42fc031-3cd3-499b-b29e-7f449d90827d.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898002470937</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Geleia Queensberry 320g Frutas Verm</t>
+          <t>Geleia Zero Homemade Premium 250g Amora</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa937c8e-dcb3-41a4-bc1a-d6ec804efb2e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c12210f-83a9-48b0-9bc4-69bcf59b30d3.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7898002470951</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mel Florismel Florada Sivestre 300g</t>
+          <t>Geleia Queensberry 320g Pimenta Verm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ac2f022-220a-4114-8873-df2d7f8c3abf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0db4381-e415-4341-a570-909194f0f122.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896214532924</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mel Florismel Florada Silvestre 500g</t>
+          <t>Creme Avela Nutella 650g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 56,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d879e1ed-13f5-42b6-a068-ad72b07bea93.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2831b55-bce0-4c38-9ddb-ed7d1ff0c891.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898024396529</t>
         </is>
       </c>
     </row>
@@ -758,7 +818,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mel Florismel Florada Eucalipto 300g</t>
+          <t>Geleia Linea Morango Pote 230g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -768,7 +828,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7f05a9f-b166-4ad4-b611-4a382d6694fd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e90a5435-e866-47c8-b969-2a97dd08b122.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896001210042</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Geleia Linea Morango Pote 230g</t>
+          <t>Geleia Diet Linea Pt 230g Amora</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e90a5435-e866-47c8-b969-2a97dd08b122.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fac89905-05da-4ea1-8576-8e42f475b744.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896001215009</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Geleia Diet Linea Vd 230g Fr Vermelhas</t>
+          <t>Geleia Diet Linea Pt 230g Framboesa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/147f9da5-3cb0-474d-87a1-bc4ab7119f1d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2a9520e-1a42-4538-bd7d-db638869bd50.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896001210196</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Geleia Homemade Premium 320g Mor</t>
+          <t>Creme Crocante Ovomaltine 260g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0be57576-8a8e-4066-b177-d3aae0214d9c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9cc84153-2696-4b83-9293-37be574f81a8.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898331014420</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Geleia Queensberry 320g Pimenta Verm</t>
+          <t>Geleia Homemade Premium 320g Mor</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0db4381-e415-4341-a570-909194f0f122.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0be57576-8a8e-4066-b177-d3aae0214d9c.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7898002470050</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Geleia Queenseberry Amora 320g</t>
+          <t>Geleia Linea Mirtilo Pote 230g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f43811cd-66fb-423a-bafa-62576fe02819.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/245301e0-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896001215160</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mel Florismel Florada Laranja 500g</t>
+          <t>Geleia Diet Linea Vd 230g Fr Vermelhas</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0e210cd-a05d-4e7d-9e2b-eee7a54b3b76.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/147f9da5-3cb0-474d-87a1-bc4ab7119f1d.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896001200111</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Geleia Homemade Premium 320g Fr Verm</t>
+          <t>Geleia Diet Linea Pt 230gr Goiaba</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/97f6ac10-f230-41a7-a3a3-aebc90b4da86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1677a3c3-7dc0-43eb-b72b-e514b341ecbb.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896001215245</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mel Florismel Florada Eucalipto 500g</t>
+          <t>Geleia Diet Linea Pt 230gr Pim Vermelha</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13714b88-0050-467d-902c-e7587cb0d9de.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f56d65c-842c-430f-9e20-c15c351a129e.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896001200043</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Io-io Creme Mix Chocolate 41,9gr</t>
+          <t>Mel Baldoni Bisnaga 300 Gr Laranjeiras</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0195f0fc-6931-4fef-a6e9-0e4e254fe7c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e251951-130d-4ed6-b937-896e935b466b.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898258950849</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Geleia De Uva Saint Paul 230g</t>
+          <t>Mel Baldoni 300gr Flores De Eucalipto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb74ea5-2340-4c42-9076-f4e0b019b1de.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d73d4d2-4046-4df9-8839-a9487df6d9b4.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7898258952652</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Geleia De Damasco Saint Paul 230g</t>
+          <t>Mel Baldoni Bisnaga 300gr Silvestre</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/246a719c-820a-4b00-94d8-820d1f718345.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4207eb32-b75e-406a-b0a9-ad1f9e2c7198.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7898258950542</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Geleia De Laranja Saint Paul 230g</t>
+          <t>Io-io Creme Mix Chocolate 41,9gr</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1a4da84-9940-4d17-b937-b81653ee1aec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0195f0fc-6931-4fef-a6e9-0e4e254fe7c6.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7899970402463</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Geleia Diet Queensberry 280g Morango</t>
+          <t>Geleia Queensberry 320g Pimenta Biquinho</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5a2daf1-9d22-4ba6-8b89-11431f702b3c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/887f564e-7163-4e36-9997-08fb49ca26db.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896214532924</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Creme De Avelã Divinonut 140g</t>
+          <t>Geleia Queensberry 320g Pimenta Forte</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0c6d20f-66cd-44c8-a2d9-1f03b2a7c66b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e046a46f-74e6-462e-9819-4ee0297df75b.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896214532924</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Geleia Diet Linea Pt 230g Amora</t>
+          <t>Mel Florismel Pro/euca/agriao 300g</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fac89905-05da-4ea1-8576-8e42f475b744.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72830945-e1a4-4e96-bf52-1fe8a75ce205.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7897771400336</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Geleia Queensberry 320g Laranja</t>
+          <t>Geleia De Morango Saint Paul 230g</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fe02d27-1d35-4e02-838b-1e68461eff4e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee1ec0a7-0f09-4035-85e1-cbcc406bad7f.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7899801001223</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Geleia De Goiaba Saint Paul 230g</t>
+          <t>Geleia Queensberry 320g Morango</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/008c77dc-74d3-40c0-b540-5e2885a449d5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d9abbfb-a918-4bc6-9fb4-f442cdb9ca8b.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896214535048</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Geleia Diet Queensberry 280g Amora</t>
+          <t>Geleia De Pessego Saint Paul 230g</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f148b0da-ec3e-4a9f-9d2a-774ba8a8cace.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67384f5e-29d4-4510-80f8-68cfc8051d32.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7899801001230</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Geleia Diet Linea Pt 230g Framboesa</t>
+          <t>Geleia De Uva Saint Paul 230g</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2a9520e-1a42-4538-bd7d-db638869bd50.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb74ea5-2340-4c42-9076-f4e0b019b1de.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7899801001247</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Geleia De Framboesa Saint Paul 230g</t>
+          <t>Geleia Saint Paul 230g Amora</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8c42026-8fd5-49d2-b449-41a606d20de4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f09df5a4-2d29-4af1-b51a-0b4a5742e74d.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7899801001223</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pasta De Gergelim Tahine Istambul 200g</t>
+          <t>Geleia De Goiaba Saint Paul 230g</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/841d95a6-a28a-4fe8-97dd-0af18faa93f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/008c77dc-74d3-40c0-b540-5e2885a449d5.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7899801001193</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Creme De Avelã Divinonut 350g</t>
+          <t>Geleia De Laranja Saint Paul 230g</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec7a30db-995e-4933-bfba-fe683ac705ad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1a4da84-9940-4d17-b937-b81653ee1aec.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7899801001209</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Geleia Saint Paul 230g Amora</t>
+          <t>Geleia Queenseberry Amora 320g</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f09df5a4-2d29-4af1-b51a-0b4a5742e74d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f43811cd-66fb-423a-bafa-62576fe02819.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896214532603</t>
         </is>
       </c>
     </row>
@@ -1419,6 +1599,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/758f3522-63cc-41aa-97fe-07363693f0a0.jpg</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896214532207</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Geleia Cepera Uva 230g</t>
+          <t>Mel Florismel Florada Laranja 300g</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ded6c8d-0018-4193-a924-3ea3918d4202.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12b68434-7f9f-4adb-a991-2d98f24143ac.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7897771400145</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Geleia Diet Queensberry 280g Damasco</t>
+          <t>Geleia Queensberry 320g Frutas Verm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfda8243-fee3-4268-9b2b-021eccfb9060.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa937c8e-dcb3-41a4-bc1a-d6ec804efb2e.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896214532702</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mel Baldoni Bisnaga 300gr Silvestre</t>
+          <t>Geleia Diet Queensberry 280g Morango</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4207eb32-b75e-406a-b0a9-ad1f9e2c7198.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5a2daf1-9d22-4ba6-8b89-11431f702b3c.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896214533037</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mel Baldoni Bisnaga 300 Gr Laranjeiras</t>
+          <t>Geleia Diet Queensberry 280g Damasco</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e251951-130d-4ed6-b937-896e935b466b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfda8243-fee3-4268-9b2b-021eccfb9060.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896214533051</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1746,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Geleia De Pessego Saint Paul 230g</t>
+          <t>Geleia De Damasco Saint Paul 230g</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1551,7 +1756,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67384f5e-29d4-4510-80f8-68cfc8051d32.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/246a719c-820a-4b00-94d8-820d1f718345.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7899801001247</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Geleia Queensberry 320g Goiaba</t>
+          <t>Mel Florismel Florada Eucalipto 300g</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4cad21b-51c4-4432-8dce-77c7301c28dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7f05a9f-b166-4ad4-b611-4a382d6694fd.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7897771400152</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Glucose De Milho Karo 350g</t>
+          <t>Mel Florismel Florada Silvestre 500g</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0ded921-9aee-4b4e-87d1-a8a5919b4867.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d879e1ed-13f5-42b6-a068-ad72b07bea93.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7897771400763</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Creme Crocante Ovomaltine 260g</t>
+          <t>Geleia Cepera Uva 230g</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9cc84153-2696-4b83-9293-37be574f81a8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ded6c8d-0018-4193-a924-3ea3918d4202.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896025801851</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Geleia Linea Damasco Vd 230g</t>
+          <t>Geleia Cepera Morango 230g</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30bfd64f-1370-4596-b098-52b032e76abe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59f3c073-a036-44df-bf9f-0f23f73b30a8.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896025801677</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Extrato Propolis Organico Korin 30ml</t>
+          <t>Geleia Cepera Goiaba 230g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fc677ef-6521-49c0-9047-ab448828eb3f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da947fae-5d98-4acb-b977-811840a1ce23.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896025801660</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Geleia Zero Homemade Premium 250g Amora</t>
+          <t>Mel Florismel Florada Laranja 500g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c12210f-83a9-48b0-9bc4-69bcf59b30d3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0e210cd-a05d-4e7d-9e2b-eee7a54b3b76.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7897771400145</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Geleia Diet Linea Pt 230gr Goiaba</t>
+          <t>Geleia Frutas Treno 200g</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1677a3c3-7dc0-43eb-b72b-e514b341ecbb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b831b5d-95fc-406d-9fd0-c1ac136e3a41.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896462200385</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mel Florismel Pro/euca/agriao 300g</t>
+          <t>Geleia Queensberry 320g Goiaba</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72830945-e1a4-4e96-bf52-1fe8a75ce205.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4cad21b-51c4-4432-8dce-77c7301c28dc.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896214532023</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mel Baldoni 300gr Flores De Eucalipto</t>
+          <t>Mel Florismel Florada Eucalipto 500g</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d73d4d2-4046-4df9-8839-a9487df6d9b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13714b88-0050-467d-902c-e7587cb0d9de.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7897771400770</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Geleia Frutas Treno 200g</t>
+          <t>Geleia De Framboesa Saint Paul 230g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b831b5d-95fc-406d-9fd0-c1ac136e3a41.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8c42026-8fd5-49d2-b449-41a606d20de4.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7899801001186</t>
         </is>
       </c>
     </row>
@@ -1838,179 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Geleia Zero Homemade Premium 250g Morang</t>
+          <t>Geleia Queensberry 320g Laranja</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e42fc031-3cd3-499b-b29e-7f449d90827d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Mel, geleias e pastas</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Geleia Diet Linea Pt 230gr Pim Vermelha</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f56d65c-842c-430f-9e20-c15c351a129e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Mel, geleias e pastas</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Geleia Linea Mirtilo Pote 230g</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/245301e0-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Mel, geleias e pastas</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Geleia Queensberry 320g Pimenta Biquinho</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/887f564e-7163-4e36-9997-08fb49ca26db.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Mel, geleias e pastas</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Creme De Pistache Cremoso Pistachino 140g</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>R$ 47,99</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0b59440-bfb9-4fe9-8dba-7d49fe8a1178.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mel, geleias e pastas</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Creme De Pistache Crocante Pistachino 140g</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93de485a-45e2-467d-a586-7ce9b9c07b9a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Mel, geleias e pastas</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Geleia Queensberry 320g Pimenta Forte</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e046a46f-74e6-462e-9819-4ee0297df75b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fe02d27-1d35-4e02-838b-1e68461eff4e.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896214532108</t>
         </is>
       </c>
     </row>
